--- a/Data/Mechanoid Upgrades - Archotech - 3396928183/Mechanoid Upgrades - Archotech - 3396928183.xlsx
+++ b/Data/Mechanoid Upgrades - Archotech - 3396928183/Mechanoid Upgrades - Archotech - 3396928183.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjmi0\Desktop\림월드 번역\Mechanoid Upgrades - Archotech - 3396928183\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2122CE55-A3E9-4374-8563-E2580D183B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5B3CA5-3AB0-4AC8-82AB-E8FE0B65327B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,29 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>bjmi0</author>
+  </authors>
+  <commentList>
+    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-10-16 이전의 원문: 'bite scar'</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="354">
   <si>
@@ -49,42 +72,90 @@
     <t>MU_TranscendentBite.label</t>
   </si>
   <si>
+    <t>DamageDef+MU_TranscendentBite.deathMessage</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>transcendent bite</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>초월적 물림</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU_TranscendentBite.deathMessage</t>
+  </si>
+  <si>
+    <t>{0} has been bitten to death from another dimension.</t>
+  </si>
+  <si>
+    <t>DamageDef+MU_TranscendentBite_Perplex.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(이)가 다른 차원의 힘에 물려 사망했습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU_TranscendentBite_Perplex.label</t>
+  </si>
+  <si>
     <t>transcendent bite</t>
   </si>
   <si>
-    <t>DamageDef+MU_TranscendentBite.deathMessage</t>
-  </si>
-  <si>
-    <t>MU_TranscendentBite.deathMessage</t>
-  </si>
-  <si>
-    <t>{0} has been bitten to death from another dimension.</t>
-  </si>
-  <si>
-    <t>DamageDef+MU_TranscendentBite_Perplex.label</t>
-  </si>
-  <si>
-    <t>MU_TranscendentBite_Perplex.label</t>
+    <t>MU_TranscendentBite_Perplex.deathMessage</t>
   </si>
   <si>
     <t>DamageDef+MU_TranscendentBite_Perplex.deathMessage</t>
   </si>
   <si>
-    <t>MU_TranscendentBite_Perplex.deathMessage</t>
+    <t>MU_TranscendentVaporize.label</t>
   </si>
   <si>
     <t>DamageDef+MU_TranscendentVaporize.label</t>
   </si>
   <si>
-    <t>MU_TranscendentVaporize.label</t>
-  </si>
-  <si>
     <t>vaporize</t>
   </si>
   <si>
     <t>DamageDef+MU_TranscendentVaporize.deathMessage</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>증발</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MU_TranscendentVaporize.deathMessage</t>
   </si>
   <si>
@@ -94,6 +165,18 @@
     <t>HediffDef+MU_TranscendentBite.labelNounPretty</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(이)가 극심한 열으로 인해 증발했습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>HediffDef</t>
   </si>
   <si>
@@ -106,18 +189,42 @@
     <t>HediffDef+MU_TranscendentBite.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{1}의 {0}</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU_TranscendentBite.labelNoun</t>
+  </si>
+  <si>
     <t>HediffDef+MU_TranscendentBite.labelNoun</t>
   </si>
   <si>
-    <t>MU_TranscendentBite.labelNoun</t>
-  </si>
-  <si>
     <t>a transcendent bite wound</t>
   </si>
   <si>
     <t>HediffDef+MU_TranscendentBite.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>초월적으로 물린 상처</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MU_TranscendentBite.description</t>
   </si>
   <si>
@@ -127,6 +234,18 @@
     <t>HediffDef+MU_TranscendentBite.injuryProps.destroyedLabel</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>초월적인 힘에 물린 상처입니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MU_TranscendentBite.injuryProps.destroyedLabel</t>
   </si>
   <si>
@@ -136,24 +255,48 @@
     <t>HediffDef+MU_TranscendentBite.injuryProps.destroyedOutLabel</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>물어뜯김</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MU_TranscendentBite.injuryProps.destroyedOutLabel</t>
   </si>
   <si>
     <t>Bitten out</t>
   </si>
   <si>
+    <t>MU_TranscendentBite.comps.0.labelTendedWell</t>
+  </si>
+  <si>
     <t>HediffDef+MU_TranscendentBite.comps.0.labelTendedWell</t>
   </si>
   <si>
-    <t>MU_TranscendentBite.comps.0.labelTendedWell</t>
-  </si>
-  <si>
     <t>bandaged</t>
   </si>
   <si>
     <t>HediffDef+MU_TranscendentBite.comps.0.labelTendedWellInner</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>붕대 감음</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MU_TranscendentBite.comps.0.labelTendedWellInner</t>
   </si>
   <si>
@@ -163,6 +306,18 @@
     <t>HediffDef+MU_TranscendentBite.comps.0.labelSolidTendedWell</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>홍합됨</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MU_TranscendentBite.comps.0.labelSolidTendedWell</t>
   </si>
   <si>
@@ -172,21 +327,42 @@
     <t>HediffDef+MU_TranscendentBite.comps.2.permanentLabel</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>접합됨</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MU_TranscendentBite.comps.2.permanentLabel</t>
   </si>
   <si>
-    <t>bite scar</t>
-  </si>
-  <si>
     <t>HediffDef+MU_Perplex.label</t>
   </si>
   <si>
-    <t>MU_Perplex.label</t>
-  </si>
-  <si>
     <t>transcendent perplex</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>MU_Perplex.label</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>초월 혼돈</t>
+  </si>
+  <si>
     <t>HediffDef+MU_Perplex.description</t>
   </si>
   <si>
@@ -199,6 +375,18 @@
     <t>ThingDef+MU_UpgradesExtractor.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>시공간의 불규칙한 진동에 영향을 받아 불규칙적으로 순간이동하며, 이 과정에서 약간의 물리적 피해를 입습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>ThingDef</t>
   </si>
   <si>
@@ -211,6 +399,18 @@
     <t>ThingDef+MU_UpgradesExtractor.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>개조 추출기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MU_UpgradesExtractor.description</t>
   </si>
   <si>
@@ -220,6 +420,18 @@
     <t>ThingDef+MU_UpgradesExtractor.comps.1.useLabel</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>파괴된 메카노이드에서 개조를 추출할 수 있는 일회용 초월공학 장치입니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MU_UpgradesExtractor.comps.1.useLabel</t>
   </si>
   <si>
@@ -229,6 +441,18 @@
     <t>ThingDef+MU_Apparel_UpgradeExtractorLance.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0_label} 사용</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MU_Apparel_UpgradeExtractorLance.label</t>
   </si>
   <si>
@@ -238,6 +462,18 @@
     <t>ThingDef+MU_Apparel_UpgradeExtractorLance.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>개조추출 창</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MU_Apparel_UpgradeExtractorLance.description</t>
   </si>
   <si>
@@ -247,6 +483,18 @@
     <t>ThingDef+MU_Apparel_UpgradeExtractorLance.comps.2.chargeNoun</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>제한된 사용량의 초월공학 장치입니다. 먼 거리에 있는 메카노이드에게서 개조 부품을 추출할 수 있습니다. 장거리용이지만 시야에 목표가 있어야 합니다. 작동까지 오랜 시간이 소요됩니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MU_Apparel_UpgradeExtractorLance.comps.2.chargeNoun</t>
   </si>
   <si>
@@ -256,21 +504,45 @@
     <t>ThingDef+MU_Apparel_UpgradeExtractorLance.verbs.Verb_CastTargetEffectExtractUpgrade.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>충전</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MU_Apparel_UpgradeExtractorLance.verbs.Verb_CastTargetEffectExtractUpgrade.label</t>
   </si>
   <si>
+    <t>MU_Apparel_UpgradeExtractorLance.verbs.Verb_CastTargetEffectExtractUpgrade.invalidTargetPawn</t>
+  </si>
+  <si>
     <t>ThingDef+MU_Apparel_UpgradeExtractorLance.verbs.Verb_CastTargetEffectExtractUpgrade.invalidTargetPawn</t>
   </si>
   <si>
-    <t>MU_Apparel_UpgradeExtractorLance.verbs.Verb_CastTargetEffectExtractUpgrade.invalidTargetPawn</t>
-  </si>
-  <si>
     <t>immune</t>
   </si>
   <si>
     <t>JobDef+MU_ExtractUpgrade.reportString</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>개조추출 면역</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>JobDef</t>
   </si>
   <si>
@@ -283,6 +555,18 @@
     <t>ThingDef+Mote_ArchoShield.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>TargetA에게서 개조 추출 중</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Mote_ArchoShield.label</t>
   </si>
   <si>
@@ -319,24 +603,39 @@
     <t>ThingDef+MU_ArchoChip_Melee.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>초월공학 근접 공격 칩</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MU_ArchoChip_Melee.description</t>
   </si>
   <si>
     <t>A small archotech chip, that can be installed into mechanoid brain.</t>
   </si>
   <si>
+    <t>메카노이드 두뇌에 장착할 수 있는 소형 초월공학 칩입니다.</t>
+  </si>
+  <si>
     <t>MU.MechUpgradeDef+MU_ArchoChip_Melee.label</t>
   </si>
   <si>
     <t>MU.MechUpgradeDef</t>
   </si>
   <si>
+    <t>ThingDef+MU_ArchoChip_Ranged.label</t>
+  </si>
+  <si>
     <t>MU.MechUpgradeDef+MU_ArchoChip_Melee.description</t>
   </si>
   <si>
-    <t>ThingDef+MU_ArchoChip_Ranged.label</t>
-  </si>
-  <si>
     <t>MU_ArchoChip_Ranged.label</t>
   </si>
   <si>
@@ -346,18 +645,30 @@
     <t>ThingDef+MU_ArchoChip_Ranged.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>초월공학 원거리 공격 칩</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MU_ArchoChip_Ranged.description</t>
   </si>
   <si>
     <t>MU.MechUpgradeDef+MU_ArchoChip_Ranged.label</t>
   </si>
   <si>
+    <t>ThingDef+MU_ArchoChip_Speed.label</t>
+  </si>
+  <si>
     <t>MU.MechUpgradeDef+MU_ArchoChip_Ranged.description</t>
   </si>
   <si>
-    <t>ThingDef+MU_ArchoChip_Speed.label</t>
-  </si>
-  <si>
     <t>MU_ArchoChip_Speed.label</t>
   </si>
   <si>
@@ -367,18 +678,30 @@
     <t>ThingDef+MU_ArchoChip_Speed.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>초월공학 이동 칩</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MU_ArchoChip_Speed.description</t>
   </si>
   <si>
     <t>MU.MechUpgradeDef+MU_ArchoChip_Speed.label</t>
   </si>
   <si>
+    <t>ThingDef+MU_ArchoChip_Control.label</t>
+  </si>
+  <si>
     <t>MU.MechUpgradeDef+MU_ArchoChip_Speed.description</t>
   </si>
   <si>
-    <t>ThingDef+MU_ArchoChip_Control.label</t>
-  </si>
-  <si>
     <t>MU_ArchoChip_Control.label</t>
   </si>
   <si>
@@ -388,18 +711,30 @@
     <t>ThingDef+MU_ArchoChip_Control.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>초월공학 명령 칩</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MU_ArchoChip_Control.description</t>
   </si>
   <si>
     <t>MU.MechUpgradeDef+MU_ArchoChip_Control.label</t>
   </si>
   <si>
+    <t>ThingDef+MU_ArchoTeleporter.label</t>
+  </si>
+  <si>
     <t>MU.MechUpgradeDef+MU_ArchoChip_Control.description</t>
   </si>
   <si>
-    <t>ThingDef+MU_ArchoTeleporter.label</t>
-  </si>
-  <si>
     <t>MU_ArchoTeleporter.label</t>
   </si>
   <si>
@@ -409,6 +744,18 @@
     <t>ThingDef+MU_ArchoTeleporter.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>초월공학 순간이동기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MU_ArchoTeleporter.description</t>
   </si>
   <si>
@@ -418,15 +765,27 @@
     <t>MU.MechUpgradeDef+MU_ArchoTeleporter.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>메카노이드에 장착 가능한 초월공학 장치입니다. 사물이나 생명체를 순간이동시킬 수 있는 기능을 제공합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityDef</t>
+  </si>
+  <si>
     <t>MU.MechUpgradeDef+MU_ArchoTeleporter.description</t>
   </si>
   <si>
     <t>AbilityDef+MU_ArchoTeleportation.label</t>
   </si>
   <si>
-    <t>AbilityDef</t>
-  </si>
-  <si>
     <t>MU_ArchoTeleportation.label</t>
   </si>
   <si>
@@ -436,6 +795,18 @@
     <t>AbilityDef+MU_ArchoTeleportation.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>순간이동</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MU_ArchoTeleportation.description</t>
   </si>
   <si>
@@ -445,565 +816,12 @@
     <t>ThingDef+MU_PerplexTurret.label</t>
   </si>
   <si>
-    <t>MU_PerplexTurret.label</t>
-  </si>
-  <si>
-    <t>perplex turret</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_PerplexTurret.description</t>
-  </si>
-  <si>
-    <t>MU_PerplexTurret.description</t>
-  </si>
-  <si>
-    <t>An archotech turret that can be mounted on mechanoid. It shoots transcendent shots that gives perplex effect.</t>
-  </si>
-  <si>
-    <t>MU.MechUpgradeDef+MU_PerplexTurret.label</t>
-  </si>
-  <si>
-    <t>MU.MechUpgradeDef+MU_PerplexTurret.description</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_Gun_PerplexTurret.label</t>
-  </si>
-  <si>
-    <t>MU_Gun_PerplexTurret.label</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_Gun_PerplexTurret.description</t>
-  </si>
-  <si>
-    <t>MU_Gun_PerplexTurret.description</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_Gun_PerplexTurret.verbs.Verb_Shoot.label</t>
-  </si>
-  <si>
-    <t>MU_Gun_PerplexTurret.verbs.Verb_Shoot.label</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_Bullet_PerplexShot.label</t>
-  </si>
-  <si>
-    <t>MU_Bullet_PerplexShot.label</t>
-  </si>
-  <si>
-    <t>perplex shot</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_PerplexRepeater.label</t>
-  </si>
-  <si>
-    <t>MU_PerplexRepeater.label</t>
-  </si>
-  <si>
-    <t>perplex repeater</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_PerplexRepeater.description</t>
-  </si>
-  <si>
-    <t>MU_PerplexRepeater.description</t>
-  </si>
-  <si>
-    <t>An archotech device that can be installed into mechanoid. It can shoot transcendent shots that gives perplex effect.</t>
-  </si>
-  <si>
-    <t>MU.MechUpgradeDef+MU_PerplexRepeater.label</t>
-  </si>
-  <si>
-    <t>MU.MechUpgradeDef+MU_PerplexRepeater.description</t>
-  </si>
-  <si>
-    <t>AbilityDef+MU_Perplex.label</t>
-  </si>
-  <si>
-    <t>perplex burst</t>
-  </si>
-  <si>
-    <t>AbilityDef+MU_Perplex.description</t>
-  </si>
-  <si>
-    <t>Fire a burst of perplex shots.</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_ArchoExterminator.label</t>
-  </si>
-  <si>
-    <t>MU_ArchoExterminator.label</t>
-  </si>
-  <si>
-    <t>archo exterminator</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_ArchoExterminator.description</t>
-  </si>
-  <si>
-    <t>MU_ArchoExterminator.description</t>
-  </si>
-  <si>
-    <t>An archotech device that can be installed into mechanoid. It allows to launch a large bolt of energy which generates a high-temperature explosion.</t>
-  </si>
-  <si>
-    <t>MU.MechUpgradeDef+MU_ArchoExterminator.label</t>
-  </si>
-  <si>
-    <t>MU.MechUpgradeDef+MU_ArchoExterminator.description</t>
-  </si>
-  <si>
-    <t>AbilityDef+MU_ArchoExterminator.label</t>
-  </si>
-  <si>
-    <t>AbilityDef+MU_ArchoExterminator.description</t>
-  </si>
-  <si>
-    <t>Launch a large bolt of energy which generates a high-temperature explosion.</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_Bullet_Exterminator.label</t>
-  </si>
-  <si>
-    <t>MU_Bullet_Exterminator.label</t>
-  </si>
-  <si>
-    <t>exterminator shot</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_ArchoModule_Ranged.label</t>
-  </si>
-  <si>
-    <t>MU_ArchoModule_Ranged.label</t>
-  </si>
-  <si>
-    <t>ranged damage archomodule</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_ArchoModule_Ranged.description</t>
-  </si>
-  <si>
-    <t>MU_ArchoModule_Ranged.description</t>
-  </si>
-  <si>
-    <t>A special module created by archotech. It can be installed into mechanoid, doubling ranged damage.</t>
-  </si>
-  <si>
-    <t>MU.MechUpgradeDef+MU_ArchoModule_Ranged.label</t>
-  </si>
-  <si>
-    <t>MU.MechUpgradeDef+MU_ArchoModule_Ranged.description</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_ArchoModule_Melee.label</t>
-  </si>
-  <si>
-    <t>MU_ArchoModule_Melee.label</t>
-  </si>
-  <si>
-    <t>melee damage archomodule</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_ArchoModule_Melee.description</t>
-  </si>
-  <si>
-    <t>MU_ArchoModule_Melee.description</t>
-  </si>
-  <si>
-    <t>A special module created by archotech. It can be installed into mechanoid, doubling melee damage.</t>
-  </si>
-  <si>
-    <t>MU.MechUpgradeDef+MU_ArchoModule_Melee.label</t>
-  </si>
-  <si>
-    <t>MU.MechUpgradeDef+MU_ArchoModule_Melee.description</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_ArchoModule_Robust.label</t>
-  </si>
-  <si>
-    <t>MU_ArchoModule_Robust.label</t>
-  </si>
-  <si>
-    <t>durability archomodule</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_ArchoModule_Robust.description</t>
-  </si>
-  <si>
-    <t>MU_ArchoModule_Robust.description</t>
-  </si>
-  <si>
-    <t>A special module created by archotech. It can be installed into mechanoid, increasing it's durability.</t>
-  </si>
-  <si>
-    <t>MU.MechUpgradeDef+MU_ArchoModule_Robust.label</t>
-  </si>
-  <si>
-    <t>MU.MechUpgradeDef+MU_ArchoModule_Robust.description</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_PerplexChip_Melee.label</t>
-  </si>
-  <si>
-    <t>MU_PerplexChip_Melee.label</t>
-  </si>
-  <si>
-    <t>perplexed melee chip</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_PerplexChip_Melee.description</t>
-  </si>
-  <si>
-    <t>MU_PerplexChip_Melee.description</t>
-  </si>
-  <si>
-    <t>A small archotech chip, that can be installed into mechanoid brain.\n\nThis chip sometimes creates space-time oscillations that teleport mechanoid to nearby location, dealing some physical damage.</t>
-  </si>
-  <si>
-    <t>MU.MechUpgradeDef+MU_PerplexChip_Melee.label</t>
-  </si>
-  <si>
-    <t>MU.MechUpgradeDef+MU_PerplexChip_Melee.description</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_PerplexChip_Ranged.label</t>
-  </si>
-  <si>
-    <t>MU_PerplexChip_Ranged.label</t>
-  </si>
-  <si>
-    <t>perplexed ranged chip</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_PerplexChip_Ranged.description</t>
-  </si>
-  <si>
-    <t>MU_PerplexChip_Ranged.description</t>
-  </si>
-  <si>
-    <t>MU.MechUpgradeDef+MU_PerplexChip_Ranged.label</t>
-  </si>
-  <si>
-    <t>MU.MechUpgradeDef+MU_PerplexChip_Ranged.description</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_PerplexChip_Speed.label</t>
-  </si>
-  <si>
-    <t>MU_PerplexChip_Speed.label</t>
-  </si>
-  <si>
-    <t>perplexed speed chip</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_PerplexChip_Speed.description</t>
-  </si>
-  <si>
-    <t>MU_PerplexChip_Speed.description</t>
-  </si>
-  <si>
-    <t>MU.MechUpgradeDef+MU_PerplexChip_Speed.label</t>
-  </si>
-  <si>
-    <t>MU.MechUpgradeDef+MU_PerplexChip_Speed.description</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_PerplexChip_Control.label</t>
-  </si>
-  <si>
-    <t>MU_PerplexChip_Control.label</t>
-  </si>
-  <si>
-    <t>perplexed command chip</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_PerplexChip_Control.description</t>
-  </si>
-  <si>
-    <t>MU_PerplexChip_Control.description</t>
-  </si>
-  <si>
-    <t>MU.MechUpgradeDef+MU_PerplexChip_Control.label</t>
-  </si>
-  <si>
-    <t>MU.MechUpgradeDef+MU_PerplexChip_Control.description</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_PerplexModule_Ranged.label</t>
-  </si>
-  <si>
-    <t>MU_PerplexModule_Ranged.label</t>
-  </si>
-  <si>
-    <t>perplexed ranged damage module</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_PerplexModule_Ranged.description</t>
-  </si>
-  <si>
-    <t>MU_PerplexModule_Ranged.description</t>
-  </si>
-  <si>
-    <t>A special module created by archotech. It can be installed into mechanoid, doubling ranged damage.\n\nThis module sometimes creates space-time oscillations that teleport mechanoid to nearby location, dealing some physical damage.</t>
-  </si>
-  <si>
-    <t>MU.MechUpgradeDef+MU_PerplexModule_Ranged.label</t>
-  </si>
-  <si>
-    <t>MU.MechUpgradeDef+MU_PerplexModule_Ranged.description</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_PerplexModule_Melee.label</t>
-  </si>
-  <si>
-    <t>MU_PerplexModule_Melee.label</t>
-  </si>
-  <si>
-    <t>perplexed melee damage module</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_PerplexModule_Melee.description</t>
-  </si>
-  <si>
-    <t>MU_PerplexModule_Melee.description</t>
-  </si>
-  <si>
-    <t>A special module created by archotech. It can be installed into mechanoid, doubling melee damage.\n\nThis module sometimes creates space-time oscillations that teleport mechanoid to nearby location, dealing some physical damage.</t>
-  </si>
-  <si>
-    <t>MU.MechUpgradeDef+MU_PerplexModule_Melee.label</t>
-  </si>
-  <si>
-    <t>MU.MechUpgradeDef+MU_PerplexModule_Melee.description</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_PerplexModule_Robust.label</t>
-  </si>
-  <si>
-    <t>MU_PerplexModule_Robust.label</t>
-  </si>
-  <si>
-    <t>perplexed durability module</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_PerplexModule_Robust.description</t>
-  </si>
-  <si>
-    <t>MU_PerplexModule_Robust.description</t>
-  </si>
-  <si>
-    <t>A special module created by archotech. It can be installed into mechanoid, increasing it's durability.\n\nThis module sometimes creates space-time oscillations that teleport mechanoid to nearby location, dealing some physical damage.</t>
-  </si>
-  <si>
-    <t>MU.MechUpgradeDef+MU_PerplexModule_Robust.label</t>
-  </si>
-  <si>
-    <t>MU.MechUpgradeDef+MU_PerplexModule_Robust.description</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_ArchoInducer_PsychicShock.label</t>
-  </si>
-  <si>
-    <t>MU_ArchoInducer_PsychicShock.label</t>
-  </si>
-  <si>
-    <t>psychic shock inducer</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_ArchoInducer_PsychicShock.description</t>
-  </si>
-  <si>
-    <t>MU_ArchoInducer_PsychicShock.description</t>
-  </si>
-  <si>
-    <t>An archotech psychic device that can induce psychic shock.</t>
-  </si>
-  <si>
-    <t>MU.MechUpgradeDef+MU_ArchoInducer_PsychicShock.label</t>
-  </si>
-  <si>
-    <t>MU.MechUpgradeDef+MU_ArchoInducer_PsychicShock.description</t>
-  </si>
-  <si>
-    <t>AbilityDef+MU_ArchoInducer_PsychicShock.label</t>
-  </si>
-  <si>
-    <t>induce psychic shock</t>
-  </si>
-  <si>
-    <t>AbilityDef+MU_ArchoInducer_PsychicShock.description</t>
-  </si>
-  <si>
-    <t>Induce psychic shock to living creature.</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_ArchoInducer_PsychicInsanity.label</t>
-  </si>
-  <si>
-    <t>MU_ArchoInducer_PsychicInsanity.label</t>
-  </si>
-  <si>
-    <t>psychic insanity inducer</t>
-  </si>
-  <si>
-    <t>ThingDef+MU_ArchoInducer_PsychicInsanity.description</t>
-  </si>
-  <si>
-    <t>MU_ArchoInducer_PsychicInsanity.description</t>
-  </si>
-  <si>
-    <t>An archotech psychic device that can induce psychic insanity.</t>
-  </si>
-  <si>
-    <t>MU.MechUpgradeDef+MU_ArchoInducer_PsychicInsanity.label</t>
-  </si>
-  <si>
-    <t>MU.MechUpgradeDef+MU_ArchoInducer_PsychicInsanity.description</t>
-  </si>
-  <si>
-    <t>AbilityDef+MU_ArchoInducer_PsychicInsanity.label</t>
-  </si>
-  <si>
-    <t>induce psychic insanity</t>
-  </si>
-  <si>
-    <t>AbilityDef+MU_ArchoInducer_PsychicInsanity.description</t>
-  </si>
-  <si>
-    <t>Induce psychic insanity to living creature.</t>
-  </si>
-  <si>
-    <t>transcendent bite</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>증발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1}의 {0}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초월공학 근접 공격 칩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초월공학 원거리 공격 칩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초월공학 이동 칩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초월공학 명령 칩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초월공학 순간이동기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>순간이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메카노이드 두뇌에 장착할 수 있는 소형 초월공학 칩입니다.</t>
-  </si>
-  <si>
-    <t>{0}(이)가 다른 차원의 힘에 물려 사망했습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(이)가 극심한 열으로 인해 증발했습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초월적으로 물린 상처</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초월적인 힘에 물린 상처입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>붕대 감음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물어뜯김</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍합됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>접합됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물린 흉터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초월적 물림</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MU_Perplex.label</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시공간의 불규칙한 진동에 영향을 받아 불규칙적으로 순간이동하며, 이 과정에서 약간의 물리적 피해를 입습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개조 추출기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0_label} 사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파괴된 메카노이드에서 개조를 추출할 수 있는 일회용 초월공학 장치입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개조추출 창</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제한된 사용량의 초월공학 장치입니다. 먼 거리에 있는 메카노이드에게서 개조 부품을 추출할 수 있습니다. 장거리용이지만 시야에 목표가 있어야 합니다. 작동까지 오랜 시간이 소요됩니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>충전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개조추출 면역</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TargetA에게서 개조 추출 중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메카노이드에 장착 가능한 초월공학 장치입니다. 사물이나 생명체를 순간이동시킬 수 있는 기능을 제공합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t>대상을</t>
     </r>
@@ -1022,7 +840,6 @@
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t>근처의</t>
     </r>
@@ -1041,7 +858,6 @@
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t>원하는</t>
     </r>
@@ -1060,7 +876,6 @@
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t>위치로</t>
     </r>
@@ -1079,7 +894,6 @@
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t>순간이동시킵니다</t>
     </r>
@@ -1092,161 +906,861 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초월 혼돈</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU_PerplexTurret.label</t>
+  </si>
+  <si>
+    <t>perplex turret</t>
   </si>
   <si>
     <t>혼돈 포탑</t>
   </si>
   <si>
+    <t>ThingDef+MU_PerplexTurret.description</t>
+  </si>
+  <si>
+    <t>MU_PerplexTurret.description</t>
+  </si>
+  <si>
+    <t>An archotech turret that can be mounted on mechanoid. It shoots transcendent shots that gives perplex effect.</t>
+  </si>
+  <si>
     <t>메카노이드에 장착하는 초월공학 포탑입니다. 대상에게 혼돈 효과를 거는 초월공학 탄환을 발사합니다.</t>
   </si>
   <si>
+    <t>MU.MechUpgradeDef+MU_PerplexTurret.label</t>
+  </si>
+  <si>
+    <t>MU.MechUpgradeDef+MU_PerplexTurret.description</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_Gun_PerplexTurret.label</t>
+  </si>
+  <si>
+    <t>MU_Gun_PerplexTurret.label</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_Gun_PerplexTurret.description</t>
+  </si>
+  <si>
+    <t>MU_Gun_PerplexTurret.description</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_Gun_PerplexTurret.verbs.Verb_Shoot.label</t>
+  </si>
+  <si>
+    <t>MU_Gun_PerplexTurret.verbs.Verb_Shoot.label</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_Bullet_PerplexShot.label</t>
+  </si>
+  <si>
+    <t>MU_Bullet_PerplexShot.label</t>
+  </si>
+  <si>
+    <t>perplex shot</t>
+  </si>
+  <si>
     <t>혼돈 탄환</t>
   </si>
   <si>
-    <t>혼돈 중계기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메카노이드에 장착하는 초월공학 장치입니다. 대상에게 혼돈 효과를 거는 초월공학 탄환을 발사합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>혼돈 탄환을 연속적으로 발사합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>혼돈 격발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메카노이드에 장착하는 초월공학 장치입니다. 고온 폭발을 일으키는 거대한 에너지탄을 발사할 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>ThingDef+MU_PerplexRepeater.label</t>
+  </si>
+  <si>
+    <t>MU_PerplexRepeater.label</t>
+  </si>
+  <si>
+    <t>perplex repeater</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_PerplexRepeater.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>혼돈 중계기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU_PerplexRepeater.description</t>
+  </si>
+  <si>
+    <t>An archotech device that can be installed into mechanoid. It can shoot transcendent shots that gives perplex effect.</t>
+  </si>
+  <si>
+    <t>MU.MechUpgradeDef+MU_PerplexRepeater.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>메카노이드에 장착하는 초월공학 장치입니다. 대상에게 혼돈 효과를 거는 초월공학 탄환을 발사합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU_Perplex.label</t>
+  </si>
+  <si>
+    <t>MU.MechUpgradeDef+MU_PerplexRepeater.description</t>
+  </si>
+  <si>
+    <t>AbilityDef+MU_Perplex.label</t>
+  </si>
+  <si>
+    <t>perplex burst</t>
+  </si>
+  <si>
+    <t>AbilityDef+MU_Perplex.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>혼돈 격발</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire a burst of perplex shots.</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_ArchoExterminator.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>혼돈 탄환을 연속적으로 발사합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU_ArchoExterminator.label</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_ArchoExterminator.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>archo exterminator</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>초월공학 종말자</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU_ArchoExterminator.description</t>
+  </si>
+  <si>
+    <t>An archotech device that can be installed into mechanoid. It allows to launch a large bolt of energy which generates a high-temperature explosion.</t>
+  </si>
+  <si>
+    <t>MU.MechUpgradeDef+MU_ArchoExterminator.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>메카노이드에 장착하는 초월공학 장치입니다. 고온 폭발을 일으키는 거대한 에너지탄을 발사할 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>archo exterminator</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초월공학 종말자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고온 폭발을 일으키는 거대한 에너지탄을 발사합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>종말자 탄환</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초월공학 사격 모듈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초월공학 근접 공격 모듈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초월공학 내구 모듈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메카노이드에 장착하는 초월공학 부품입니다. 근접 피해가 두 배로 증가합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메카노이드 사격 시스템에 장착하는 초월공학 부품입니다. 원거리 피해가 두 배로 증가합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메카노이드에 장착하는 초월공학 부품입니다. 받는 피해가 감소합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>혼돈 근접 공격 칩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Launch a large bolt of energy which generates a high-temperature explosion.</t>
+  </si>
+  <si>
+    <t>MU.MechUpgradeDef+MU_ArchoExterminator.description</t>
+  </si>
+  <si>
+    <t>AbilityDef+MU_ArchoExterminator.label</t>
+  </si>
+  <si>
+    <t>AbilityDef+MU_ArchoExterminator.description</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_Bullet_Exterminator.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>고온 폭발을 일으키는 거대한 에너지탄을 발사합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU_Bullet_Exterminator.label</t>
+  </si>
+  <si>
+    <t>exterminator shot</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_ArchoModule_Ranged.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>종말자 탄환</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU_ArchoModule_Ranged.label</t>
+  </si>
+  <si>
+    <t>ranged damage archomodule</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_ArchoModule_Ranged.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>초월공학 사격 모듈</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU_ArchoModule_Ranged.description</t>
+  </si>
+  <si>
+    <t>A special module created by archotech. It can be installed into mechanoid, doubling ranged damage.</t>
+  </si>
+  <si>
+    <t>MU.MechUpgradeDef+MU_ArchoModule_Ranged.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>메카노이드 사격 시스템에 장착하는 초월공학 부품입니다. 원거리 피해가 두 배로 증가합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU_ArchoModule_Melee.label</t>
+  </si>
+  <si>
+    <t>MU.MechUpgradeDef+MU_ArchoModule_Ranged.description</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_ArchoModule_Melee.label</t>
+  </si>
+  <si>
+    <t>melee damage archomodule</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_ArchoModule_Melee.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>초월공학 근접 공격 모듈</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU_ArchoModule_Melee.description</t>
+  </si>
+  <si>
+    <t>A special module created by archotech. It can be installed into mechanoid, doubling melee damage.</t>
+  </si>
+  <si>
+    <t>MU.MechUpgradeDef+MU_ArchoModule_Melee.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>메카노이드에 장착하는 초월공학 부품입니다. 근접 피해가 두 배로 증가합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU_ArchoModule_Robust.label</t>
+  </si>
+  <si>
+    <t>MU.MechUpgradeDef+MU_ArchoModule_Melee.description</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_ArchoModule_Robust.label</t>
+  </si>
+  <si>
+    <t>durability archomodule</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_ArchoModule_Robust.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>초월공학 내구 모듈</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU_ArchoModule_Robust.description</t>
+  </si>
+  <si>
+    <t>A special module created by archotech. It can be installed into mechanoid, increasing it's durability.</t>
+  </si>
+  <si>
+    <t>MU.MechUpgradeDef+MU_ArchoModule_Robust.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>메카노이드에 장착하는 초월공학 부품입니다. 받는 피해가 감소합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU_PerplexChip_Melee.label</t>
+  </si>
+  <si>
+    <t>MU.MechUpgradeDef+MU_ArchoModule_Robust.description</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_PerplexChip_Melee.label</t>
+  </si>
+  <si>
+    <t>perplexed melee chip</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_PerplexChip_Melee.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>혼돈 근접 공격 칩</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU_PerplexChip_Melee.description</t>
+  </si>
+  <si>
+    <t>A small archotech chip, that can be installed into mechanoid brain.\n\nThis chip sometimes creates space-time oscillations that teleport mechanoid to nearby location, dealing some physical damage.</t>
   </si>
   <si>
     <t>메카노이드 두뇌에 장착할 수 있는 소형 초월공학 칩입니다.\n\n이 칩은 때때로 시공간 진동을 일으켜 메카노이드를 근처 위치로 순간이동시키고, 이 과정에서 다소의 물리적 피해를 줍니다.</t>
   </si>
   <si>
-    <t>혼돈 원거리 공격 칩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>혼돈 이동 칩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>혼돈 명령 칩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>혼돈 사격 모듈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메카노이드 사격 시스템에 장착하는 초월공학 부품입니다. 원거리 피해가 두 배로 증가합니다.\n\n이 모듈은 때때로 시공간 진동을 일으켜 메카노이드를 근처 위치로 순간이동시키고, 이 과정에서 다소의 물리적 피해를 줍니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>혼돈 근접 공격 모듈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메카노이드에 장착하는 초월공학 부품입니다. 근접 피해가 두 배로 증가합니다.\n\n이 모듈은 때때로 시공간 진동을 일으켜 메카노이드를 근처 위치로 순간이동시키고, 이 과정에서 다소의 물리적 피해를 줍니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>혼돈 내구 모듈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메카노이드에 장착하는 초월공학 부품입니다. 받는 피해가 감소합니다.\n\n이 모듈은 때때로 시공간 진동을 일으켜 메카노이드를 근처 위치로 순간이동시키고, 이 과정에서 다소의 물리적 피해를 줍니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정신충격을 유발하는 초월공학 장치입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정신충격 유발장치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정신충격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정신분열 유발장치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정신분열을 유발하는 초월공학 장치입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정신분열</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상에게 정신파동을 집중해 일정 시간 충격에 빠지게 하며, 뇌 손상의 위험이 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무서운 지각왜곡으로 대상의 마음을 압도하여 광란에 휩싸이게 하며, 뇌 손상의 위험이 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>MU.MechUpgradeDef+MU_PerplexChip_Melee.label</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_PerplexChip_Ranged.label</t>
+  </si>
+  <si>
+    <t>MU.MechUpgradeDef+MU_PerplexChip_Melee.description</t>
+  </si>
+  <si>
+    <t>MU_PerplexChip_Ranged.label</t>
+  </si>
+  <si>
+    <t>perplexed ranged chip</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_PerplexChip_Ranged.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>혼돈 원거리 공격 칩</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU_PerplexChip_Ranged.description</t>
+  </si>
+  <si>
+    <t>MU.MechUpgradeDef+MU_PerplexChip_Ranged.label</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_PerplexChip_Speed.label</t>
+  </si>
+  <si>
+    <t>MU.MechUpgradeDef+MU_PerplexChip_Ranged.description</t>
+  </si>
+  <si>
+    <t>MU_PerplexChip_Speed.label</t>
+  </si>
+  <si>
+    <t>perplexed speed chip</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_PerplexChip_Speed.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>혼돈 이동 칩</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU_PerplexChip_Speed.description</t>
+  </si>
+  <si>
+    <t>MU.MechUpgradeDef+MU_PerplexChip_Speed.label</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_PerplexChip_Control.label</t>
+  </si>
+  <si>
+    <t>MU.MechUpgradeDef+MU_PerplexChip_Speed.description</t>
+  </si>
+  <si>
+    <t>MU_PerplexChip_Control.label</t>
+  </si>
+  <si>
+    <t>perplexed command chip</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_PerplexChip_Control.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>혼돈 명령 칩</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU_PerplexChip_Control.description</t>
+  </si>
+  <si>
+    <t>MU.MechUpgradeDef+MU_PerplexChip_Control.label</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_PerplexModule_Ranged.label</t>
+  </si>
+  <si>
+    <t>MU.MechUpgradeDef+MU_PerplexChip_Control.description</t>
+  </si>
+  <si>
+    <t>MU_PerplexModule_Ranged.label</t>
+  </si>
+  <si>
+    <t>perplexed ranged damage module</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_PerplexModule_Ranged.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>혼돈 사격 모듈</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU_PerplexModule_Ranged.description</t>
+  </si>
+  <si>
+    <t>A special module created by archotech. It can be installed into mechanoid, doubling ranged damage.\n\nThis module sometimes creates space-time oscillations that teleport mechanoid to nearby location, dealing some physical damage.</t>
+  </si>
+  <si>
+    <t>MU.MechUpgradeDef+MU_PerplexModule_Ranged.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>메카노이드 사격 시스템에 장착하는 초월공학 부품입니다. 원거리 피해가 두 배로 증가합니다.\n\n이 모듈은 때때로 시공간 진동을 일으켜 메카노이드를 근처 위치로 순간이동시키고, 이 과정에서 다소의 물리적 피해를 줍니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU_PerplexModule_Melee.label</t>
+  </si>
+  <si>
+    <t>MU.MechUpgradeDef+MU_PerplexModule_Ranged.description</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_PerplexModule_Melee.label</t>
+  </si>
+  <si>
+    <t>perplexed melee damage module</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_PerplexModule_Melee.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>혼돈 근접 공격 모듈</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU_PerplexModule_Melee.description</t>
+  </si>
+  <si>
+    <t>A special module created by archotech. It can be installed into mechanoid, doubling melee damage.\n\nThis module sometimes creates space-time oscillations that teleport mechanoid to nearby location, dealing some physical damage.</t>
+  </si>
+  <si>
+    <t>MU.MechUpgradeDef+MU_PerplexModule_Melee.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>메카노이드에 장착하는 초월공학 부품입니다. 근접 피해가 두 배로 증가합니다.\n\n이 모듈은 때때로 시공간 진동을 일으켜 메카노이드를 근처 위치로 순간이동시키고, 이 과정에서 다소의 물리적 피해를 줍니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU_PerplexModule_Robust.label</t>
+  </si>
+  <si>
+    <t>MU.MechUpgradeDef+MU_PerplexModule_Melee.description</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_PerplexModule_Robust.label</t>
+  </si>
+  <si>
+    <t>perplexed durability module</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_PerplexModule_Robust.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>혼돈 내구 모듈</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU_PerplexModule_Robust.description</t>
+  </si>
+  <si>
+    <t>A special module created by archotech. It can be installed into mechanoid, increasing it's durability.\n\nThis module sometimes creates space-time oscillations that teleport mechanoid to nearby location, dealing some physical damage.</t>
+  </si>
+  <si>
+    <t>MU.MechUpgradeDef+MU_PerplexModule_Robust.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>메카노이드에 장착하는 초월공학 부품입니다. 받는 피해가 감소합니다.\n\n이 모듈은 때때로 시공간 진동을 일으켜 메카노이드를 근처 위치로 순간이동시키고, 이 과정에서 다소의 물리적 피해를 줍니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU_ArchoInducer_PsychicShock.label</t>
+  </si>
+  <si>
+    <t>MU.MechUpgradeDef+MU_PerplexModule_Robust.description</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_ArchoInducer_PsychicShock.label</t>
+  </si>
+  <si>
+    <t>psychic shock inducer</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_ArchoInducer_PsychicShock.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>정신충격 유발장치</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU_ArchoInducer_PsychicShock.description</t>
+  </si>
+  <si>
+    <t>An archotech psychic device that can induce psychic shock.</t>
+  </si>
+  <si>
+    <t>MU.MechUpgradeDef+MU_ArchoInducer_PsychicShock.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>정신충격을 유발하는 초월공학 장치입니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>induce psychic shock</t>
+  </si>
+  <si>
+    <t>MU.MechUpgradeDef+MU_ArchoInducer_PsychicShock.description</t>
+  </si>
+  <si>
+    <t>AbilityDef+MU_ArchoInducer_PsychicShock.label</t>
+  </si>
+  <si>
+    <t>AbilityDef+MU_ArchoInducer_PsychicShock.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>정신충격</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Induce psychic shock to living creature.</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_ArchoInducer_PsychicInsanity.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>대상에게 정신파동을 집중해 일정 시간 충격에 빠지게 하며, 뇌 손상의 위험이 있습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU_ArchoInducer_PsychicInsanity.label</t>
+  </si>
+  <si>
+    <t>psychic insanity inducer</t>
+  </si>
+  <si>
+    <t>ThingDef+MU_ArchoInducer_PsychicInsanity.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>정신분열 유발장치</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU_ArchoInducer_PsychicInsanity.description</t>
+  </si>
+  <si>
+    <t>An archotech psychic device that can induce psychic insanity.</t>
+  </si>
+  <si>
+    <t>MU.MechUpgradeDef+MU_ArchoInducer_PsychicInsanity.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>정신분열을 유발하는 초월공학 장치입니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>induce psychic insanity</t>
+  </si>
+  <si>
+    <t>MU.MechUpgradeDef+MU_ArchoInducer_PsychicInsanity.description</t>
+  </si>
+  <si>
+    <t>AbilityDef+MU_ArchoInducer_PsychicInsanity.label</t>
+  </si>
+  <si>
+    <t>AbilityDef+MU_ArchoInducer_PsychicInsanity.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>정신분열</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Induce psychic insanity to living creature.</t>
+  </si>
+  <si>
+    <t>transcendent bite scar</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>무서운 지각왜곡으로 대상의 마음을 압도하여 광란에 휩싸이게 하며, 뇌 손상의 위험이 있습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>초월적 물린 흉터</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1281,17 +1795,27 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
-      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA500"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1306,10 +1830,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1611,17 +2136,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I105" sqref="I105"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="7" width="9.1796875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -1655,2139 +2180,2140 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>284</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>303</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>294</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>303</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>294</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>285</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>295</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>286</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>303</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>296</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>297</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>299</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>299</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>298</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>300</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>301</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>302</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>304</v>
+        <v>65</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>316</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>305</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>306</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>308</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>307</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>309</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>310</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>311</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>309</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>312</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>313</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>287</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>293</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>287</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>293</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>288</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>293</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>288</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>293</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>289</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>293</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>289</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>293</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>290</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="F46" s="1" t="s">
-        <v>293</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>290</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="F48" s="1" t="s">
-        <v>293</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>291</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>314</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>291</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>314</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>292</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>315</v>
+        <v>168</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>317</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>318</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>317</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>318</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>317</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>318</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>317</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>319</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>320</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>321</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>320</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>321</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>323</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>322</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>325</v>
+        <v>210</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>326</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>324</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>326</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>324</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>326</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>327</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>328</v>
+        <v>226</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>185</v>
+        <v>228</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>329</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>333</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>185</v>
+        <v>228</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>329</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>333</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>330</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>332</v>
+        <v>244</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>330</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>198</v>
+        <v>246</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>332</v>
+        <v>244</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>199</v>
+        <v>247</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>331</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>334</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>331</v>
+        <v>250</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>334</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>335</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>336</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>335</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>336</v>
+        <v>263</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>215</v>
+        <v>265</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>216</v>
+        <v>267</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>337</v>
+        <v>270</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>219</v>
+        <v>271</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>336</v>
+        <v>263</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>216</v>
+        <v>267</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>337</v>
+        <v>270</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>219</v>
+        <v>271</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>336</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>222</v>
+        <v>273</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>223</v>
+        <v>275</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>224</v>
+        <v>276</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>338</v>
+        <v>278</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>336</v>
+        <v>263</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>227</v>
+        <v>280</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>223</v>
+        <v>275</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>224</v>
+        <v>276</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>338</v>
+        <v>278</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>336</v>
+        <v>263</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>230</v>
+        <v>283</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>231</v>
+        <v>284</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>336</v>
+        <v>263</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>230</v>
+        <v>283</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>231</v>
+        <v>284</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>336</v>
+        <v>263</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>238</v>
+        <v>292</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>240</v>
+        <v>295</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
-        <v>242</v>
+        <v>297</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>238</v>
+        <v>292</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>243</v>
+        <v>300</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>240</v>
+        <v>295</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
-        <v>244</v>
+        <v>301</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>246</v>
+        <v>302</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
-        <v>247</v>
+        <v>303</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>249</v>
+        <v>306</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
-        <v>250</v>
+        <v>307</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>246</v>
+        <v>302</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
-        <v>251</v>
+        <v>310</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>249</v>
+        <v>306</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
-        <v>252</v>
+        <v>311</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>253</v>
+        <v>309</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>254</v>
+        <v>312</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
-        <v>255</v>
+        <v>313</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>256</v>
+        <v>315</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>257</v>
+        <v>316</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>258</v>
+        <v>317</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>253</v>
+        <v>309</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>254</v>
+        <v>312</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
-        <v>259</v>
+        <v>320</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>256</v>
+        <v>315</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>257</v>
+        <v>316</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
-        <v>260</v>
+        <v>321</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
-        <v>263</v>
+        <v>323</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>264</v>
+        <v>325</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>265</v>
+        <v>326</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
-        <v>266</v>
+        <v>327</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
-        <v>267</v>
+        <v>330</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>264</v>
+        <v>325</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>265</v>
+        <v>326</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
-        <v>268</v>
+        <v>331</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>269</v>
+        <v>329</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
-        <v>270</v>
+        <v>332</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>264</v>
+        <v>325</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
-        <v>272</v>
+        <v>335</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
-        <v>275</v>
+        <v>339</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>276</v>
+        <v>341</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>277</v>
+        <v>342</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
-        <v>278</v>
+        <v>343</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
-        <v>279</v>
+        <v>346</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>276</v>
+        <v>341</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>277</v>
+        <v>342</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>280</v>
+        <v>347</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>281</v>
+        <v>345</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
-        <v>282</v>
+        <v>348</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>276</v>
+        <v>341</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>283</v>
+        <v>350</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>